--- a/trunk/Auditorias y asesoramientos/PROGRESO DEL PROYECTO.xlsx
+++ b/trunk/Auditorias y asesoramientos/PROGRESO DEL PROYECTO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Reporte" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="8" sheetId="8" r:id="rId9"/>
     <sheet name="Hoja1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="290">
   <si>
     <t>ANALISIS DE REQUERIMIENTOS</t>
   </si>
@@ -2687,6 +2687,9 @@
   </si>
   <si>
     <t>BAJA</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -3403,6 +3406,25 @@
     <xf numFmtId="9" fontId="25" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3433,25 +3455,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -4394,7 +4397,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4471,11 +4474,11 @@
       </c>
       <c r="D7" s="38">
         <f>'4'!E47</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E7" s="37">
         <f>'4'!D47</f>
-        <v>0.18755813953488376</v>
+        <v>0.96046511627906972</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.5" thickBot="1">
@@ -4542,7 +4545,7 @@
       </c>
       <c r="E12" s="8">
         <f>SUM(E4:E11)/8</f>
-        <v>0.48763798639610884</v>
+        <v>0.58425135848913201</v>
       </c>
     </row>
   </sheetData>
@@ -5269,7 +5272,7 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="F44" s="81">
+      <c r="F44" s="71">
         <f>SUM(F3:F43)/40</f>
         <v>0.57499999999999996</v>
       </c>
@@ -5330,10 +5333,10 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="23"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -5386,10 +5389,10 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="75">
-        <v>1</v>
-      </c>
-      <c r="I4" s="78" t="s">
+      <c r="H4" s="65">
+        <v>1</v>
+      </c>
+      <c r="I4" s="68" t="s">
         <v>207</v>
       </c>
       <c r="J4" s="15">
@@ -5419,10 +5422,10 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="75">
+      <c r="H5" s="65">
         <v>2</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="69" t="s">
         <v>208</v>
       </c>
       <c r="J5" s="15">
@@ -5452,10 +5455,10 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="75">
+      <c r="H6" s="65">
         <v>3</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="69" t="s">
         <v>209</v>
       </c>
       <c r="J6" s="15">
@@ -5483,10 +5486,10 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="75">
+      <c r="H7" s="65">
         <v>4</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="69" t="s">
         <v>210</v>
       </c>
       <c r="J7" s="15">
@@ -5514,10 +5517,10 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="75">
+      <c r="H8" s="65">
         <v>5</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="69" t="s">
         <v>211</v>
       </c>
       <c r="J8" s="15">
@@ -5545,10 +5548,10 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="75">
+      <c r="H9" s="65">
         <v>6</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="70" t="s">
         <v>246</v>
       </c>
       <c r="J9" s="15">
@@ -5576,10 +5579,10 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="75">
+      <c r="H10" s="65">
         <v>7</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="68" t="s">
         <v>212</v>
       </c>
       <c r="J10" s="15">
@@ -5607,10 +5610,10 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="75">
+      <c r="H11" s="65">
         <v>8</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="68" t="s">
         <v>213</v>
       </c>
       <c r="J11" s="15">
@@ -5638,10 +5641,10 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="75">
+      <c r="H12" s="65">
         <v>9</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="68" t="s">
         <v>214</v>
       </c>
       <c r="J12" s="15">
@@ -5669,10 +5672,10 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="75">
+      <c r="H13" s="65">
         <v>10</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="68" t="s">
         <v>215</v>
       </c>
       <c r="J13" s="15">
@@ -5700,10 +5703,10 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="75">
+      <c r="H14" s="65">
         <v>11</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="68" t="s">
         <v>216</v>
       </c>
       <c r="J14" s="15">
@@ -5731,10 +5734,10 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="75">
+      <c r="H15" s="65">
         <v>12</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="68" t="s">
         <v>217</v>
       </c>
       <c r="J15" s="15">
@@ -5756,18 +5759,18 @@
     </row>
     <row r="16" spans="1:20" ht="40.5" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="75">
+      <c r="H16" s="65">
         <v>13</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="68" t="s">
         <v>218</v>
       </c>
       <c r="J16" s="15">
@@ -5799,10 +5802,10 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="75">
+      <c r="H17" s="65">
         <v>14</v>
       </c>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="68" t="s">
         <v>219</v>
       </c>
       <c r="J17" s="15">
@@ -5834,10 +5837,10 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="75">
+      <c r="H18" s="65">
         <v>15</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="68" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="15">
@@ -5869,10 +5872,10 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="75">
+      <c r="H19" s="65">
         <v>16</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="68" t="s">
         <v>221</v>
       </c>
       <c r="J19" s="15">
@@ -5904,10 +5907,10 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="75">
+      <c r="H20" s="65">
         <v>17</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="68" t="s">
         <v>222</v>
       </c>
       <c r="J20" s="15">
@@ -5939,10 +5942,10 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="75">
+      <c r="H21" s="65">
         <v>18</v>
       </c>
-      <c r="I21" s="78" t="s">
+      <c r="I21" s="68" t="s">
         <v>223</v>
       </c>
       <c r="J21" s="15">
@@ -5974,10 +5977,10 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="75">
+      <c r="H22" s="65">
         <v>19</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="68" t="s">
         <v>224</v>
       </c>
       <c r="J22" s="15">
@@ -6009,10 +6012,10 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="75">
+      <c r="H23" s="65">
         <v>20</v>
       </c>
-      <c r="I23" s="78" t="s">
+      <c r="I23" s="68" t="s">
         <v>225</v>
       </c>
       <c r="J23" s="15">
@@ -6040,10 +6043,10 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="75">
+      <c r="H24" s="65">
         <v>21</v>
       </c>
-      <c r="I24" s="78" t="s">
+      <c r="I24" s="68" t="s">
         <v>226</v>
       </c>
       <c r="J24" s="15">
@@ -6071,10 +6074,10 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="75">
+      <c r="H25" s="65">
         <v>22</v>
       </c>
-      <c r="I25" s="78" t="s">
+      <c r="I25" s="68" t="s">
         <v>227</v>
       </c>
       <c r="J25" s="15">
@@ -6102,10 +6105,10 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="76">
+      <c r="H26" s="66">
         <v>23</v>
       </c>
-      <c r="I26" s="78" t="s">
+      <c r="I26" s="68" t="s">
         <v>228</v>
       </c>
       <c r="J26" s="55">
@@ -6133,10 +6136,10 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="75">
+      <c r="H27" s="65">
         <v>24</v>
       </c>
-      <c r="I27" s="78" t="s">
+      <c r="I27" s="68" t="s">
         <v>229</v>
       </c>
       <c r="J27" s="15">
@@ -6164,10 +6167,10 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="75">
+      <c r="H28" s="65">
         <v>25</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="68" t="s">
         <v>230</v>
       </c>
       <c r="J28" s="15">
@@ -6195,10 +6198,10 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="75">
+      <c r="H29" s="65">
         <v>26</v>
       </c>
-      <c r="I29" s="78" t="s">
+      <c r="I29" s="68" t="s">
         <v>231</v>
       </c>
       <c r="J29" s="15">
@@ -6226,10 +6229,10 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="75">
+      <c r="H30" s="65">
         <v>27</v>
       </c>
-      <c r="I30" s="78" t="s">
+      <c r="I30" s="68" t="s">
         <v>232</v>
       </c>
       <c r="J30" s="15">
@@ -6257,10 +6260,10 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="75">
+      <c r="H31" s="65">
         <v>28</v>
       </c>
-      <c r="I31" s="78" t="s">
+      <c r="I31" s="68" t="s">
         <v>233</v>
       </c>
       <c r="J31" s="15">
@@ -6288,10 +6291,10 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="75">
+      <c r="H32" s="65">
         <v>29</v>
       </c>
-      <c r="I32" s="78" t="s">
+      <c r="I32" s="68" t="s">
         <v>234</v>
       </c>
       <c r="J32" s="15">
@@ -6319,10 +6322,10 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="75">
+      <c r="H33" s="65">
         <v>30</v>
       </c>
-      <c r="I33" s="78" t="s">
+      <c r="I33" s="68" t="s">
         <v>235</v>
       </c>
       <c r="J33" s="15">
@@ -6350,10 +6353,10 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="75">
+      <c r="H34" s="65">
         <v>31</v>
       </c>
-      <c r="I34" s="78" t="s">
+      <c r="I34" s="68" t="s">
         <v>236</v>
       </c>
       <c r="J34" s="15">
@@ -6381,10 +6384,10 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="75">
+      <c r="H35" s="65">
         <v>32</v>
       </c>
-      <c r="I35" s="78" t="s">
+      <c r="I35" s="68" t="s">
         <v>237</v>
       </c>
       <c r="J35" s="15">
@@ -6412,10 +6415,10 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="75">
+      <c r="H36" s="65">
         <v>33</v>
       </c>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="68" t="s">
         <v>238</v>
       </c>
       <c r="J36" s="15">
@@ -6443,10 +6446,10 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="75">
+      <c r="H37" s="65">
         <v>34</v>
       </c>
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="68" t="s">
         <v>239</v>
       </c>
       <c r="J37" s="15">
@@ -6474,10 +6477,10 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="75">
+      <c r="H38" s="65">
         <v>35</v>
       </c>
-      <c r="I38" s="78" t="s">
+      <c r="I38" s="68" t="s">
         <v>240</v>
       </c>
       <c r="J38" s="15">
@@ -6505,10 +6508,10 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="75">
+      <c r="H39" s="65">
         <v>36</v>
       </c>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="68" t="s">
         <v>241</v>
       </c>
       <c r="J39" s="15">
@@ -6536,10 +6539,10 @@
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="75">
+      <c r="H40" s="65">
         <v>37</v>
       </c>
-      <c r="I40" s="78" t="s">
+      <c r="I40" s="68" t="s">
         <v>242</v>
       </c>
       <c r="J40" s="15">
@@ -6567,10 +6570,10 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="75">
+      <c r="H41" s="65">
         <v>38</v>
       </c>
-      <c r="I41" s="78" t="s">
+      <c r="I41" s="68" t="s">
         <v>243</v>
       </c>
       <c r="J41" s="15">
@@ -6598,10 +6601,10 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="75">
+      <c r="H42" s="65">
         <v>39</v>
       </c>
-      <c r="I42" s="78" t="s">
+      <c r="I42" s="68" t="s">
         <v>244</v>
       </c>
       <c r="J42" s="15">
@@ -6629,10 +6632,10 @@
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="75">
+      <c r="H43" s="65">
         <v>40</v>
       </c>
-      <c r="I43" s="78" t="s">
+      <c r="I43" s="68" t="s">
         <v>245</v>
       </c>
       <c r="J43" s="15">
@@ -6660,9 +6663,9 @@
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="11"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
@@ -6682,7 +6685,7 @@
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="75"/>
+      <c r="H45" s="65"/>
       <c r="I45" s="12" t="s">
         <v>199</v>
       </c>
@@ -8397,10 +8400,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E47"/>
+  <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8410,7 +8413,7 @@
     <col min="3" max="3" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1">
+    <row r="3" spans="1:6" ht="33.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>197</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="36">
         <v>2</v>
       </c>
@@ -8450,14 +8453,14 @@
         <v>122</v>
       </c>
       <c r="D5" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="35">
         <f t="shared" ref="E5:E46" si="0">IF(D5=1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="36">
         <v>3</v>
       </c>
@@ -8466,14 +8469,17 @@
         <v>123</v>
       </c>
       <c r="D6" s="45">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E6" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="36">
         <v>4</v>
       </c>
@@ -8482,14 +8488,14 @@
         <v>124</v>
       </c>
       <c r="D7" s="45">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E7" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="36">
         <v>5</v>
       </c>
@@ -8500,15 +8506,14 @@
         <v>126</v>
       </c>
       <c r="D8" s="45">
-        <f>SUM(D9:D13)/5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="E8" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="36">
         <v>6</v>
       </c>
@@ -8519,14 +8524,14 @@
         <v>127</v>
       </c>
       <c r="D9" s="45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="36">
         <v>7</v>
       </c>
@@ -8537,14 +8542,14 @@
         <v>128</v>
       </c>
       <c r="D10" s="45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="36">
         <v>8</v>
       </c>
@@ -8555,14 +8560,14 @@
         <v>130</v>
       </c>
       <c r="D11" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="36">
         <v>9</v>
       </c>
@@ -8573,14 +8578,14 @@
         <v>132</v>
       </c>
       <c r="D12" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="36">
         <v>10</v>
       </c>
@@ -8591,14 +8596,14 @@
         <v>134</v>
       </c>
       <c r="D13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="36">
         <v>11</v>
       </c>
@@ -8609,15 +8614,14 @@
         <v>135</v>
       </c>
       <c r="D14" s="45">
-        <f>SUM(D24:D29,D15)/7</f>
-        <v>4.9999999999999996E-2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="36">
         <v>12</v>
       </c>
@@ -8628,15 +8632,14 @@
         <v>137</v>
       </c>
       <c r="D15" s="45">
-        <f>SUM(D16:D23)/8</f>
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E15" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="36">
         <v>13</v>
       </c>
@@ -8647,11 +8650,11 @@
         <v>139</v>
       </c>
       <c r="D16" s="45">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8665,11 +8668,11 @@
         <v>141</v>
       </c>
       <c r="D17" s="45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E17" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8683,11 +8686,11 @@
         <v>143</v>
       </c>
       <c r="D18" s="45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8701,11 +8704,11 @@
         <v>145</v>
       </c>
       <c r="D19" s="45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8719,11 +8722,11 @@
         <v>147</v>
       </c>
       <c r="D20" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8737,11 +8740,11 @@
         <v>149</v>
       </c>
       <c r="D21" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8755,11 +8758,11 @@
         <v>151</v>
       </c>
       <c r="D22" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8773,11 +8776,11 @@
         <v>153</v>
       </c>
       <c r="D23" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8791,11 +8794,11 @@
         <v>155</v>
       </c>
       <c r="D24" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8809,11 +8812,11 @@
         <v>157</v>
       </c>
       <c r="D25" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8827,11 +8830,11 @@
         <v>159</v>
       </c>
       <c r="D26" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8845,11 +8848,11 @@
         <v>161</v>
       </c>
       <c r="D27" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8863,11 +8866,11 @@
         <v>163</v>
       </c>
       <c r="D28" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8881,7 +8884,7 @@
         <v>165</v>
       </c>
       <c r="D29" s="45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="35">
         <f t="shared" si="0"/>
@@ -8899,12 +8902,11 @@
         <v>166</v>
       </c>
       <c r="D30" s="45">
-        <f>SUM(D45,D36:D39,D31)/6</f>
-        <v>0.17500000000000002</v>
+        <v>1</v>
       </c>
       <c r="E30" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8918,12 +8920,11 @@
         <v>168</v>
       </c>
       <c r="D31" s="45">
-        <f>SUM(D32:D35)/4</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E31" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8955,11 +8956,11 @@
         <v>143</v>
       </c>
       <c r="D33" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8973,11 +8974,11 @@
         <v>145</v>
       </c>
       <c r="D34" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8991,11 +8992,11 @@
         <v>174</v>
       </c>
       <c r="D35" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9009,11 +9010,11 @@
         <v>176</v>
       </c>
       <c r="D36" s="45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E36" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9027,11 +9028,11 @@
         <v>178</v>
       </c>
       <c r="D37" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9045,11 +9046,11 @@
         <v>180</v>
       </c>
       <c r="D38" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9063,11 +9064,11 @@
         <v>182</v>
       </c>
       <c r="D39" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9081,11 +9082,11 @@
         <v>184</v>
       </c>
       <c r="D40" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9099,11 +9100,11 @@
         <v>186</v>
       </c>
       <c r="D41" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -9117,11 +9118,11 @@
         <v>188</v>
       </c>
       <c r="D42" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9135,11 +9136,11 @@
         <v>190</v>
       </c>
       <c r="D43" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9171,11 +9172,11 @@
         <v>194</v>
       </c>
       <c r="D45" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9189,11 +9190,11 @@
         <v>195</v>
       </c>
       <c r="D46" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1">
@@ -9202,11 +9203,11 @@
       </c>
       <c r="D47" s="62">
         <f>SUM(D4:D46)/A46</f>
-        <v>0.18755813953488376</v>
+        <v>0.96046511627906972</v>
       </c>
       <c r="E47" s="63">
         <f>SUM(E4:E46)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9314,7 +9315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -9386,10 +9387,10 @@
       <c r="F6" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="71"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="2:9" ht="33.75">
       <c r="B7" s="10">
@@ -10141,10 +10142,10 @@
       </c>
     </row>
     <row r="46" spans="2:6" ht="32.25" customHeight="1">
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="69"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="62">
         <v>0.57999999999999996</v>
       </c>
@@ -10190,13 +10191,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="29.25" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="2:6" ht="30">
       <c r="B4" s="9" t="s">
@@ -10235,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="22.5">
+    <row r="6" spans="2:6" ht="33.75">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="61">
-        <f t="shared" ref="F6:F45" ca="1" si="0">E6</f>
+        <f t="shared" ref="F6:F44" ca="1" si="0">E6</f>
         <v>1</v>
       </c>
     </row>
@@ -10269,7 +10270,7 @@
         <v>NO</v>
       </c>
       <c r="E7" s="50">
-        <f t="shared" ref="E7:E45" ca="1" si="1">IF(D7="SI", 1,IF(D7="si", 1,0))</f>
+        <f t="shared" ref="E7:E37" ca="1" si="1">IF(D7="SI", 1,IF(D7="si", 1,0))</f>
         <v>0</v>
       </c>
       <c r="F7" s="61">
@@ -10318,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="22.5">
+    <row r="10" spans="2:6" ht="33.75">
       <c r="B10" s="10">
         <v>6</v>
       </c>
@@ -10581,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="22.5">
+    <row r="23" spans="2:6" ht="33.75">
       <c r="B23" s="10">
         <v>19</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="33.75">
+    <row r="25" spans="2:6" ht="22.5">
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="33.75">
+    <row r="27" spans="2:6" ht="22.5">
       <c r="B27" s="58">
         <v>23</v>
       </c>
@@ -11030,13 +11031,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H44" s="81"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="46" spans="2:8" ht="21">
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="69"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="62">
         <v>0.57999999999999996</v>
       </c>
